--- a/single_digit/Results/YvsZ_CNN_GL.xlsx
+++ b/single_digit/Results/YvsZ_CNN_GL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\single_digit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE0DE3B-7B60-426B-BE5B-C4AE64A99200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A99A6A-52E9-41AB-9E4F-08585A6852A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60F57292-22A5-4A33-BAC1-D93E5267D72A}"/>
   </bookViews>
@@ -38,15 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
-  <si>
-    <t>training_acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Training error</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,15 +64,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Task: Y vs Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training_error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,25 +408,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.22589999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.22589999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.22589999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.22589999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.22589999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.22589999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.22589999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,10 +797,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$H$7</c:f>
+              <c:f>CNN!$D$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -819,6 +815,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,10 +879,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>CNN!$D$7:$H$7</c:f>
+              <c:f>CNN!$D$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -895,6 +897,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,25 +1022,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,39 +2880,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D86EA0-3C88-40C3-A1C5-042D836277E7}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.32700000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.39500000000000002</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2912,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2920,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.17499999999999999</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2928,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.29299999999999998</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2954,60 +2967,60 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.39400000000000002</v>
+        <v>0.224</v>
       </c>
       <c r="D8">
-        <v>0.27600000000000002</v>
+        <v>0.22589999999999993</v>
       </c>
       <c r="E8">
-        <v>0.27600000000000002</v>
+        <v>0.22589999999999993</v>
       </c>
       <c r="F8">
-        <v>0.27600000000000002</v>
+        <v>0.22589999999999993</v>
       </c>
       <c r="G8">
-        <v>0.27600000000000002</v>
+        <v>0.22589999999999993</v>
       </c>
       <c r="H8">
-        <v>0.27600000000000002</v>
+        <v>0.22589999999999993</v>
       </c>
       <c r="I8">
-        <v>0.27600000000000002</v>
+        <v>0.22589999999999993</v>
       </c>
       <c r="J8">
-        <v>0.27600000000000002</v>
+        <v>0.22589999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.311</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3015,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.23799999999999999</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3023,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3031,38 +3044,113 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.17699999999999999</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <f>AVERAGE(A3:A12)</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>0.23300000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <f>STDEV(A3:A12)</f>
-        <v>5.1639777949432225E-2</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <f>STDEV(B3:B12)</f>
-        <v>8.3598245595626397E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>9</v>
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f>AVERAGE(A3:A22)</f>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(B3:B22)</f>
+        <v>0.22589999999999993</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>STDEV(A3:A22)</f>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>STDEV(B3:B22)</f>
+        <v>1.9297940986431412E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3084,12 +3172,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -3345,7 +3433,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="0">AVERAGE(B3:B12)</f>
@@ -3378,7 +3466,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <f>STDEVP(B3:B12)</f>
@@ -3411,12 +3499,12 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -3672,7 +3760,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28:H28" si="2">AVERAGE(B18:B27)</f>
@@ -3705,7 +3793,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:H29" si="3">STDEVA(B18:B27)</f>
@@ -3747,7 +3835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E7B3FA-A786-498B-86FF-4C69BB3470EF}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:H27"/>
     </sheetView>
   </sheetViews>
@@ -3755,12 +3843,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -4016,7 +4104,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <f t="shared" ref="B13:H13" si="0">AVERAGE(B3:B12)</f>
@@ -4049,7 +4137,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <f>STDEV(B3:B12)</f>
@@ -4082,12 +4170,12 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -4343,7 +4431,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28:H28" si="2">AVERAGE(B18:B27)</f>
@@ -4376,7 +4464,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:H29" si="3">STDEVA(B18:B27)</f>
